--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2025/XuatKho/Thang2/XKBH_BaoHanhVNET_060225.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2025/XuatKho/Thang2/XKBH_BaoHanhVNET_060225.xlsx
@@ -1432,6 +1432,15 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1658,15 +1667,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3304,7 +3304,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3419,17 +3419,17 @@
       <c r="B8" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="211" t="s">
+      <c r="C8" s="135" t="s">
         <v>123</v>
       </c>
       <c r="D8" s="71">
         <v>50</v>
       </c>
       <c r="E8" s="71"/>
-      <c r="F8" s="211" t="s">
+      <c r="F8" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="211" t="s">
+      <c r="G8" s="135" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3440,28 +3440,28 @@
       <c r="B9" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="212"/>
+      <c r="C9" s="136"/>
       <c r="D9" s="71">
         <v>50</v>
       </c>
       <c r="E9" s="71"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="213"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="71">
         <v>50</v>
       </c>
       <c r="E10" s="71"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="213"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
@@ -3667,54 +3667,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="135" t="s">
+      <c r="A1" s="147"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="137"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140"/>
       <c r="G1" s="90" t="s">
         <v>76</v>
       </c>
       <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
+      <c r="A2" s="150"/>
       <c r="B2" s="124"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="140"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="90" t="s">
         <v>71</v>
       </c>
       <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="143"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="90" t="s">
         <v>61</v>
       </c>
       <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="96" t="s">
@@ -3756,10 +3756,10 @@
       <c r="A7" s="64">
         <v>1</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="158"/>
+      <c r="C7" s="161"/>
       <c r="D7" s="72" t="s">
         <v>118</v>
       </c>
@@ -3785,36 +3785,36 @@
       <c r="H8" s="65"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156" t="s">
+      <c r="B9" s="159"/>
+      <c r="C9" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156" t="s">
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="156"/>
+      <c r="H9" s="159"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155" t="s">
+      <c r="B10" s="158"/>
+      <c r="C10" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="155"/>
+      <c r="H10" s="158"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -3827,24 +3827,24 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="156" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153" t="s">
+      <c r="B15" s="156"/>
+      <c r="C15" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153" t="s">
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="153"/>
+      <c r="H15" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3902,11 +3902,11 @@
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="83"/>
       <c r="B2" s="83"/>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="32" t="s">
         <v>75</v>
       </c>
@@ -3914,9 +3914,9 @@
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="83"/>
       <c r="B3" s="83"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
       <c r="F3" s="32" t="s">
         <v>71</v>
       </c>
@@ -3924,18 +3924,18 @@
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="161"/>
+      <c r="B5" s="164"/>
       <c r="F5" s="22" t="s">
         <v>45</v>
       </c>
@@ -4174,32 +4174,32 @@
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="171" t="s">
+      <c r="E37" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="171"/>
+      <c r="F37" s="174"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="159" t="s">
+      <c r="B38" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="159"/>
+      <c r="C38" s="162"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="159" t="s">
+      <c r="E38" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="159"/>
+      <c r="F38" s="162"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="160" t="s">
+      <c r="B39" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="160"/>
+      <c r="C39" s="163"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="160" t="s">
+      <c r="E39" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="160"/>
+      <c r="F39" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4246,76 +4246,76 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="83"/>
       <c r="B2" s="83"/>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="177" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="178"/>
-      <c r="L2" s="179"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="182"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="83"/>
       <c r="B3" s="83"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="177" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="178"/>
-      <c r="L3" s="179"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="182"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="177" t="s">
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="178"/>
-      <c r="L4" s="179"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="182"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175" t="s">
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -4407,58 +4407,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="187" t="s">
+      <c r="A21" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="173" t="s">
+      <c r="D21" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="172" t="s">
+      <c r="E21" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="172" t="s">
+      <c r="F21" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172" t="s">
+      <c r="G21" s="175"/>
+      <c r="H21" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="172" t="s">
+      <c r="I21" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="172" t="s">
+      <c r="J21" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="182" t="s">
+      <c r="K21" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="180" t="s">
+      <c r="L21" s="183" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="187"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="172"/>
+      <c r="A22" s="190"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="175"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="181"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="184"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -4503,45 +4503,45 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="186" t="s">
+      <c r="D26" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="189"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159" t="s">
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="159"/>
-      <c r="H27" s="159" t="s">
+      <c r="F27" s="162"/>
+      <c r="H27" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="159"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160" t="s">
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="160"/>
-      <c r="I28" s="160" t="s">
+      <c r="F28" s="163"/>
+      <c r="I28" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="160"/>
+      <c r="J28" s="163"/>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4576,74 +4576,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="185" t="s">
+      <c r="B32" s="188" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="185"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="185"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="188"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="185" t="s">
+      <c r="A33" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="185"/>
-      <c r="C33" s="185"/>
-      <c r="D33" s="185"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="188"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="184" t="s">
+      <c r="A34" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="184"/>
-      <c r="C34" s="184"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="184"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="187"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="184" t="s">
+      <c r="A35" s="187" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="184"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
+      <c r="B35" s="187"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="184" t="s">
+      <c r="A36" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="184"/>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
+      <c r="B36" s="187"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4717,60 +4717,60 @@
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83"/>
       <c r="B2" s="83"/>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="177" t="s">
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="179"/>
+      <c r="K2" s="182"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="83"/>
       <c r="B3" s="83"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="177" t="s">
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="179"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="177" t="s">
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="179"/>
+      <c r="K4" s="182"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4784,12 +4784,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="202" t="s">
+      <c r="H6" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="205"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -4819,10 +4819,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="196" t="s">
+      <c r="J7" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="197"/>
+      <c r="K7" s="200"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -4836,8 +4836,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="190"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="193"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -4851,8 +4851,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="190"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="193"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -4866,8 +4866,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="192"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="195"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -4881,8 +4881,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="192"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="195"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -4896,8 +4896,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="192"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="195"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -4911,14 +4911,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="192"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="195"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="198" t="s">
+      <c r="A14" s="201" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="199"/>
+      <c r="B14" s="202"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -4926,30 +4926,30 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="194"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="197"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="188" t="s">
+      <c r="A16" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="188"/>
-      <c r="C16" s="188"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="188" t="s">
+      <c r="E16" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188" t="s">
+      <c r="H16" s="191"/>
+      <c r="I16" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="188"/>
-      <c r="K16" s="188"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="191"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
@@ -5024,10 +5024,10 @@
       <c r="F2" s="85"/>
       <c r="G2" s="85"/>
       <c r="H2" s="86"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="179"/>
+      <c r="J2" s="182"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="83"/>
@@ -5038,24 +5038,24 @@
       <c r="F3" s="88"/>
       <c r="G3" s="88"/>
       <c r="H3" s="89"/>
-      <c r="I3" s="177" t="s">
+      <c r="I3" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="179"/>
+      <c r="J3" s="182"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
       <c r="C4" s="83"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="177" t="s">
+      <c r="D4" s="208"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="179"/>
+      <c r="J4" s="182"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5101,11 +5101,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -5115,11 +5115,11 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="203" t="s">
+      <c r="H8" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="203"/>
-      <c r="J8" s="204"/>
+      <c r="I8" s="206"/>
+      <c r="J8" s="207"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
@@ -5133,7 +5133,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="96"/>
       <c r="I9" s="96"/>
-      <c r="J9" s="208"/>
+      <c r="J9" s="211"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
@@ -5148,7 +5148,7 @@
       <c r="G10" s="52"/>
       <c r="H10" s="96"/>
       <c r="I10" s="96"/>
-      <c r="J10" s="208"/>
+      <c r="J10" s="211"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
@@ -5163,7 +5163,7 @@
       <c r="G11" s="52"/>
       <c r="H11" s="96"/>
       <c r="I11" s="96"/>
-      <c r="J11" s="208"/>
+      <c r="J11" s="211"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
@@ -5178,7 +5178,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="96"/>
       <c r="I12" s="96"/>
-      <c r="J12" s="208"/>
+      <c r="J12" s="211"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
@@ -5193,7 +5193,7 @@
       <c r="G13" s="52"/>
       <c r="H13" s="96"/>
       <c r="I13" s="96"/>
-      <c r="J13" s="208"/>
+      <c r="J13" s="211"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
@@ -5208,7 +5208,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="96"/>
       <c r="I14" s="96"/>
-      <c r="J14" s="208"/>
+      <c r="J14" s="211"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
@@ -5223,7 +5223,7 @@
       <c r="G15" s="52"/>
       <c r="H15" s="96"/>
       <c r="I15" s="96"/>
-      <c r="J15" s="208"/>
+      <c r="J15" s="211"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
@@ -5238,7 +5238,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="96"/>
       <c r="I16" s="96"/>
-      <c r="J16" s="208"/>
+      <c r="J16" s="211"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
@@ -5253,7 +5253,7 @@
       <c r="G17" s="52"/>
       <c r="H17" s="96"/>
       <c r="I17" s="96"/>
-      <c r="J17" s="208"/>
+      <c r="J17" s="211"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
@@ -5268,21 +5268,21 @@
       <c r="G18" s="52"/>
       <c r="H18" s="96"/>
       <c r="I18" s="96"/>
-      <c r="J18" s="208"/>
+      <c r="J18" s="211"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="209"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="210"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="213"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
